--- a/短文本分类的研究及其在口语对话系统中的应用.xlsx
+++ b/短文本分类的研究及其在口语对话系统中的应用.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13230"/>
+    <workbookView windowWidth="28695" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="短文本" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>句子级别</t>
   </si>
@@ -22,6 +22,15 @@
     <t>挑战在哪?</t>
   </si>
   <si>
+    <t>短，信息缺乏，上下文缺失，口语化，稀疏，训练样例少</t>
+  </si>
+  <si>
+    <t>主要有哪些解决方法？</t>
+  </si>
+  <si>
+    <t>BOW、RNN()、CNN</t>
+  </si>
+  <si>
     <t>谁？</t>
   </si>
   <si>
@@ -35,6 +44,39 @@
   </si>
   <si>
     <t>有什么限制</t>
+  </si>
+  <si>
+    <t>Socher et al., 2013</t>
+  </si>
+  <si>
+    <t>tree-structured models</t>
+  </si>
+  <si>
+    <t>长依赖问题，有序</t>
+  </si>
+  <si>
+    <t>1、需要外部语法树，且要求句子比较语法规整，不适合口语化句子; 2、需要很大的监管来避免梯度消失，比如Socher需要对句子中的短语也进行标注，而且每个标注都输出; 3、限制于句子级别，难以扩展到文档级别;</t>
+  </si>
+  <si>
+    <t>Kalchbrenner, ACL 2014;  Kim EMNLP 2014;</t>
+  </si>
+  <si>
+    <t>CNN-based</t>
+  </si>
+  <si>
+    <t>有序</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、更像是bag of n-gram，长依赖问题理论上可以解决，但是需要足够大的窗口; </t>
+  </si>
+  <si>
+    <t>Zhang NAACL 2016;</t>
+  </si>
+  <si>
+    <t>LSTM and CNN</t>
+  </si>
+  <si>
+    <t>不局限于句子; 可扩展;长依赖问题; 有序;底层依赖于word embedding，可以处理多种版本embedding</t>
   </si>
 </sst>
 </file>
@@ -42,12 +84,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,21 +117,126 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -102,134 +249,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -252,19 +271,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -276,25 +421,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,108 +445,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -418,30 +455,25 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFC000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFC000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFC000"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -487,17 +519,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -526,17 +567,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -558,6 +599,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -566,175 +616,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -744,32 +776,35 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="40" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1086,19 +1121,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="16.875" customWidth="1"/>
+    <col min="1" max="1" width="24.25" customWidth="1"/>
+    <col min="2" max="2" width="16.8833333333333" customWidth="1"/>
     <col min="3" max="3" width="36.5" customWidth="1"/>
-    <col min="4" max="4" width="27.5" customWidth="1"/>
-    <col min="5" max="5" width="42" customWidth="1"/>
+    <col min="4" max="4" width="26.1333333333333" customWidth="1"/>
+    <col min="5" max="5" width="111.133333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:3">
@@ -1112,142 +1147,176 @@
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A4" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:3">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="C3" s="6"/>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:5">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:5">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:5">
-      <c r="A7" s="9"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:5">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" customHeight="1" spans="1:5">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" customHeight="1" spans="1:5">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" customHeight="1" spans="1:5">
-      <c r="A11" s="9"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" customHeight="1" spans="1:5">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" customHeight="1" spans="1:5">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:5">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="10"/>
-    </row>
-    <row r="15" customHeight="1" spans="1:5">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:5">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" customHeight="1" spans="1:5">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" customHeight="1" spans="1:5">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="10"/>
-    </row>
-    <row r="19" customHeight="1" spans="1:5">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" customHeight="1" spans="1:5">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="10"/>
+      <c r="C5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" ht="40" customHeight="1" spans="1:5">
+      <c r="A6" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" ht="40" customHeight="1" spans="1:5">
+      <c r="A7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" ht="40" customHeight="1" spans="1:5">
+      <c r="A8" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" ht="40" customHeight="1" spans="1:5">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" ht="40" customHeight="1" spans="1:5">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" ht="40" customHeight="1" spans="1:5">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" ht="40" customHeight="1" spans="1:5">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" ht="40" customHeight="1" spans="1:5">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="11"/>
+    </row>
+    <row r="14" ht="40" customHeight="1" spans="1:5">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="11"/>
+    </row>
+    <row r="15" ht="40" customHeight="1" spans="1:5">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="11"/>
+    </row>
+    <row r="16" ht="40" customHeight="1" spans="1:5">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" ht="40" customHeight="1" spans="1:5">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="11"/>
+    </row>
+    <row r="18" ht="40" customHeight="1" spans="1:5">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="11"/>
+    </row>
+    <row r="19" ht="40" customHeight="1" spans="1:5">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="11"/>
+    </row>
+    <row r="20" ht="40" customHeight="1" spans="1:5">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="11"/>
+    </row>
+    <row r="21" ht="40" customHeight="1" spans="1:5">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>
